--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1360924.646005022</v>
+        <v>1417133.041985755</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.6830760726</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6895939.052522184</v>
+        <v>7482822.138940625</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>223.9133497557902</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>378.6175546367681</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -674,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>202.3597505545877</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>136.6601511077866</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -902,10 +904,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>116.4535400430314</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.0451571427469</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1066,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>228.8880632640814</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>122.9177036806383</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>151.2988365291116</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>50.7790181202091</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.59416316343537</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>80.99776003010543</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.89949249262364</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>163.3096110770792</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>186.9176635037746</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1819,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>117.6389794551519</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1904,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.6878865881506</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2254,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.0596678020107</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.3305147903308</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.3509450707811</v>
       </c>
     </row>
     <row r="32">
@@ -3190,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>101.8436776486291</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>150.733927139503</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788672</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.4723331260435</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>169.5557471029805</v>
+        <v>245.9424894880813</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3901,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429434</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>39.3963362682162</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>186.9176635037746</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>151.5440623940404</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>201.9491407442908</v>
       </c>
       <c r="V46" t="n">
-        <v>260.444681387164</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907.1102945911382</v>
+        <v>427.7981182481856</v>
       </c>
       <c r="C2" t="n">
-        <v>480.2095646044383</v>
+        <v>404.9377923018898</v>
       </c>
       <c r="D2" t="n">
-        <v>97.76759022386436</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E2" t="n">
-        <v>75.83105441212597</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74727664193027</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>1090.853728201993</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>1090.853728201993</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M2" t="n">
-        <v>1592.543782971651</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N2" t="n">
-        <v>2266.345434084965</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O2" t="n">
-        <v>2266.345434084965</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>2266.345434084965</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2501.505342633781</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2501.505342633781</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2144.015927760031</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>2144.015927760031</v>
+        <v>1471.030487888972</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.295928927778</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y2" t="n">
-        <v>1326.958658882668</v>
+        <v>653.97321901161</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>652.3801878020344</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L3" t="n">
-        <v>652.3801878020344</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M3" t="n">
-        <v>652.3801878020344</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N3" t="n">
-        <v>1326.181838915349</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364.5018564693964</v>
+        <v>789.6093675008983</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5018564693964</v>
+        <v>617.6368043798143</v>
       </c>
       <c r="D4" t="n">
-        <v>364.5018564693964</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E4" t="n">
-        <v>364.5018564693964</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F4" t="n">
-        <v>364.5018564693964</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>198.2448867636286</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2064.726598204046</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>1860.322809765069</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>1580.138361265373</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1298.426893873402</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>1023.574490045915</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X4" t="n">
-        <v>781.0105934917201</v>
+        <v>789.6093675008983</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6678251814621</v>
+        <v>789.6093675008983</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1352.001345065968</v>
+        <v>1438.597012500541</v>
       </c>
       <c r="C5" t="n">
-        <v>925.1006150792682</v>
+        <v>1011.696282513841</v>
       </c>
       <c r="D5" t="n">
-        <v>501.8079942642685</v>
+        <v>588.4036616988417</v>
       </c>
       <c r="E5" t="n">
-        <v>479.8714584525301</v>
+        <v>162.4267218466993</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74727664193027</v>
+        <v>44.79688341939483</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L5" t="n">
-        <v>1402.051920498411</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M5" t="n">
-        <v>2075.853571611725</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N5" t="n">
-        <v>2075.853571611725</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O5" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P5" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>2326.039563889495</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.319565057242</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y5" t="n">
-        <v>1771.849709357498</v>
+        <v>1454.404972751667</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M6" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N6" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="O6" t="n">
-        <v>1316.97146190481</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P6" t="n">
-        <v>1316.97146190481</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>808.0559982170226</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>636.0834350959386</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>636.0834350959386</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>469.8752292487922</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>298.0134550233526</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2064.726598204046</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2064.726598204046</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1833.526534300934</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1551.815066908963</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W7" t="n">
-        <v>1276.962663081476</v>
+        <v>1668.347381242917</v>
       </c>
       <c r="X7" t="n">
-        <v>1034.398766527281</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>808.0559982170226</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>578.8174082416888</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C8" t="n">
-        <v>555.957082295393</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>536.7048655207973</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>514.7683297090589</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>89.64414789845907</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N8" t="n">
-        <v>1402.051920498411</v>
+        <v>667.494702989317</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.853571611725</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2569.603805983985</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>2569.603805983985</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.114391110234</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.723041410581</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X8" t="n">
-        <v>1404.003042578328</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>998.6657725332188</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>515.5329466256644</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>515.5329466256644</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M9" t="n">
-        <v>515.5329466256644</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N9" t="n">
-        <v>515.5329466256644</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="O9" t="n">
-        <v>1189.334597738979</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>564.491161465453</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C10" t="n">
-        <v>392.518598344369</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D10" t="n">
-        <v>392.518598344369</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E10" t="n">
-        <v>226.3103924972226</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2187.823032372085</v>
+        <v>2118.947862113333</v>
       </c>
       <c r="T10" t="n">
-        <v>1944.483684597984</v>
+        <v>1875.608514339233</v>
       </c>
       <c r="U10" t="n">
-        <v>1664.299236098289</v>
+        <v>1595.424065839537</v>
       </c>
       <c r="V10" t="n">
-        <v>1382.587768706318</v>
+        <v>1313.712598447566</v>
       </c>
       <c r="W10" t="n">
-        <v>1107.735364878831</v>
+        <v>1038.860194620079</v>
       </c>
       <c r="X10" t="n">
-        <v>865.1714683246356</v>
+        <v>796.2962980658845</v>
       </c>
       <c r="Y10" t="n">
-        <v>638.8287000143777</v>
+        <v>569.9535297556265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1411.582070106411</v>
+        <v>2533.780365848255</v>
       </c>
       <c r="C11" t="n">
-        <v>984.6813401197112</v>
+        <v>2106.879635861555</v>
       </c>
       <c r="D11" t="n">
-        <v>561.3887193047115</v>
+        <v>1683.587015046556</v>
       </c>
       <c r="E11" t="n">
-        <v>479.5728000823827</v>
+        <v>1257.610075194413</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>832.4858933838134</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>428.146830973262</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>130.2784524472968</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N11" t="n">
-        <v>2075.853571611725</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="T11" t="n">
-        <v>2501.505342633781</v>
+        <v>4782.921672994139</v>
       </c>
       <c r="U11" t="n">
-        <v>2243.150433230194</v>
+        <v>4524.566763590551</v>
       </c>
       <c r="V11" t="n">
-        <v>2243.150433230194</v>
+        <v>4167.077348716801</v>
       </c>
       <c r="W11" t="n">
-        <v>2243.150433230194</v>
+        <v>3770.685999017148</v>
       </c>
       <c r="X11" t="n">
-        <v>1831.430434397941</v>
+        <v>3358.966000184895</v>
       </c>
       <c r="Y11" t="n">
-        <v>1831.430434397941</v>
+        <v>2953.628730139786</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>728.2502693850971</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="N12" t="n">
-        <v>728.2502693850971</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="O12" t="n">
-        <v>1189.334597738979</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.702293844386</v>
+        <v>2429.413071721396</v>
       </c>
       <c r="C14" t="n">
-        <v>1493.801563857686</v>
+        <v>2002.512341734696</v>
       </c>
       <c r="D14" t="n">
-        <v>1070.508943042686</v>
+        <v>1579.219720919696</v>
       </c>
       <c r="E14" t="n">
-        <v>644.5320031905436</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F14" t="n">
-        <v>219.4078213799438</v>
+        <v>728.1185992569538</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>323.7795368464024</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>583.4696253673028</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L14" t="n">
-        <v>1257.271276480617</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M14" t="n">
-        <v>1257.271276480617</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N14" t="n">
-        <v>1931.072927593931</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O14" t="n">
-        <v>2604.874578707245</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P14" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W14" t="n">
-        <v>2326.039563889495</v>
+        <v>3666.318704890288</v>
       </c>
       <c r="X14" t="n">
-        <v>2326.039563889495</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y14" t="n">
-        <v>1920.702293844386</v>
+        <v>2849.261436012926</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>690.5618714473297</v>
       </c>
       <c r="L15" t="n">
-        <v>515.5329466256644</v>
+        <v>690.5618714473297</v>
       </c>
       <c r="M15" t="n">
-        <v>515.5329466256644</v>
+        <v>690.5618714473297</v>
       </c>
       <c r="N15" t="n">
-        <v>515.5329466256644</v>
+        <v>1779.8768179202</v>
       </c>
       <c r="O15" t="n">
-        <v>1189.334597738979</v>
+        <v>1779.8768179202</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U16" t="n">
-        <v>1954.677197185216</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V16" t="n">
-        <v>1672.965729793244</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>1672.965729793244</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5513,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5601,13 +5603,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.8276921262043</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>621.99366083827</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5768,19 +5770,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I21" t="n">
-        <v>3313.894682672831</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J21" t="n">
-        <v>3585.592171952422</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K21" t="n">
-        <v>3585.592171952422</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L21" t="n">
-        <v>3585.592171952422</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M21" t="n">
-        <v>4225.654392279956</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N21" t="n">
-        <v>4225.654392279956</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291427</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V22" t="n">
-        <v>4951.828802806542</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W22" t="n">
-        <v>4676.976398979054</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.41250242486</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>4676.976398979054</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6239,22 +6241,22 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3250.491474491228</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4139.765359144795</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>3864.912955317308</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3622.349058763114</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3746.162634021728</v>
+        <v>3918.135197142811</v>
       </c>
       <c r="C31" t="n">
-        <v>3746.162634021728</v>
+        <v>3746.162634021727</v>
       </c>
       <c r="D31" t="n">
         <v>3582.845861148498</v>
       </c>
       <c r="E31" t="n">
-        <v>3416.637655301352</v>
+        <v>3416.637655301351</v>
       </c>
       <c r="F31" t="n">
-        <v>3244.775881075912</v>
+        <v>3244.775881075911</v>
       </c>
       <c r="G31" t="n">
         <v>3078.518911370144</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T31" t="n">
-        <v>4945.000622810562</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U31" t="n">
-        <v>4664.816174310867</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="V31" t="n">
-        <v>4383.104706918895</v>
+        <v>4553.239754399759</v>
       </c>
       <c r="W31" t="n">
-        <v>4108.252303091408</v>
+        <v>4553.239754399759</v>
       </c>
       <c r="X31" t="n">
-        <v>3865.688406537213</v>
+        <v>4310.675857845565</v>
       </c>
       <c r="Y31" t="n">
-        <v>3865.688406537213</v>
+        <v>4108.301165854877</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>881.4746279705485</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>709.5020648494644</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6892,16 +6894,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1589.056897064296</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1314.204493236809</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>1071.640596682614</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1071.640596682614</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6935,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1125.089101572745</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1002.450991995853</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>850.1944999357491</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357491</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.357631525569</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>1503.646164133598</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>1228.793760306111</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>1228.793760306111</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1002.450991995853</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7175,46 +7177,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3817.874342004482</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C40" t="n">
-        <v>3645.901778883398</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D40" t="n">
-        <v>3482.585006010169</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E40" t="n">
-        <v>3316.376800163022</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F40" t="n">
-        <v>3316.376800163022</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G40" t="n">
-        <v>3150.119830457254</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138019</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878295</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
         <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831969</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004482</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X40" t="n">
-        <v>3817.874342004482</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y40" t="n">
-        <v>3817.874342004482</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1734.105213294634</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1307.204483307934</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>883.9118624929341</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>883.9118624929341</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>458.7876806823343</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>896.2443403489217</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>1900.53044176798</v>
       </c>
       <c r="N41" t="n">
-        <v>2075.853571611725</v>
+        <v>2876.781500254681</v>
       </c>
       <c r="O41" t="n">
-        <v>2722.430913589148</v>
+        <v>3721.926150405493</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>4430.205429563421</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V41" t="n">
-        <v>2551.162482171996</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2551.162482171996</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2139.442483339743</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1734.105213294634</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1037.861172536296</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C43" t="n">
-        <v>865.8886094152118</v>
+        <v>152.1834473075703</v>
       </c>
       <c r="D43" t="n">
-        <v>702.5718365419825</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E43" t="n">
-        <v>536.363630694836</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F43" t="n">
-        <v>364.5018564693964</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>198.2448867636286</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S43" t="n">
-        <v>2017.687984891219</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T43" t="n">
-        <v>1774.348637117119</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U43" t="n">
-        <v>1494.164188617424</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1494.164188617424</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W43" t="n">
-        <v>1494.164188617424</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X43" t="n">
-        <v>1454.369909558619</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y43" t="n">
-        <v>1228.027141248361</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1332.450469921225</v>
+        <v>2429.413071721396</v>
       </c>
       <c r="C44" t="n">
-        <v>905.5497399345252</v>
+        <v>2002.512341734696</v>
       </c>
       <c r="D44" t="n">
-        <v>905.5497399345252</v>
+        <v>1579.219720919696</v>
       </c>
       <c r="E44" t="n">
-        <v>479.5728000823827</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>728.1185992569538</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>323.7795368464024</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L44" t="n">
-        <v>54.44861827178296</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M44" t="n">
-        <v>701.0259602492056</v>
+        <v>1900.53044176798</v>
       </c>
       <c r="N44" t="n">
-        <v>1374.82761136252</v>
+        <v>2876.781500254681</v>
       </c>
       <c r="O44" t="n">
-        <v>2048.629262475834</v>
+        <v>3721.926150405493</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>4430.205429563421</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W44" t="n">
-        <v>2569.356103090117</v>
+        <v>3666.318704890288</v>
       </c>
       <c r="X44" t="n">
-        <v>2157.636104257865</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y44" t="n">
-        <v>1752.298834212755</v>
+        <v>2849.261436012926</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L45" t="n">
-        <v>54.44861827178296</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="M45" t="n">
-        <v>728.2502693850971</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="N45" t="n">
-        <v>1402.051920498411</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1037.861172536296</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C46" t="n">
-        <v>865.8886094152118</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D46" t="n">
-        <v>702.5718365419825</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>536.363630694836</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>364.5018564693964</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>198.2448867636286</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>1615.987932669487</v>
       </c>
       <c r="V46" t="n">
-        <v>1971.786209940301</v>
+        <v>1615.987932669487</v>
       </c>
       <c r="W46" t="n">
-        <v>1696.933806112814</v>
+        <v>1615.987932669487</v>
       </c>
       <c r="X46" t="n">
-        <v>1454.369909558619</v>
+        <v>1373.424036115293</v>
       </c>
       <c r="Y46" t="n">
-        <v>1228.027141248361</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>544.1888939798944</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876112</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
-        <v>565.5500815777214</v>
+        <v>181.4456529820158</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8216,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>450.7747902674471</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O5" t="n">
-        <v>571.7556129878624</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8301,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N6" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>617.8397609542557</v>
+        <v>268.8396510847014</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>571.9400154420696</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>213.6990712821115</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748071</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>702.3785696021157</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,25 +8692,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>571.7556129878624</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>354.7093195917363</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,28 +8768,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>488.9136355342237</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>702.3785696021157</v>
+        <v>38.79925177260048</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>570.1292544266475</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>474.9037794053517</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>702.3785696021157</v>
+        <v>151.9604952849297</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9173,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>625.182225377852</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,16 +9251,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>226.402256022168</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>669.6242757926652</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9887,10 +9889,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622212</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10823,10 +10825,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>476.255412789225</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>487.0847740255431</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>279.576101048122</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>690.5396891392526</v>
+        <v>550.789839114399</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11375,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>728.607001161029</v>
       </c>
       <c r="O45" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>340.7194104235156</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>4.648410051339862</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23473,7 +23475,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>236.9860607093666</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>107.9720312369309</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>122.499278133501</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.20464122293433</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24649,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.93379423461421</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>23.72839555637427</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>59.8399274958679</v>
+        <v>63.5299405605043</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>19.51891035037013</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>27.88597268088363</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>184.3587736220325</v>
+        <v>107.9720312369317</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>200.7419213204367</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>107.9720312369309</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>240.8833738086162</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>75.43346327040797</v>
       </c>
       <c r="V46" t="n">
-        <v>18.44967133088738</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>659892.3882415389</v>
+        <v>657932.2612857219</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>659892.3882415389</v>
+        <v>657932.2612857219</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>659892.3882415389</v>
+        <v>657932.2612857219</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434176.9241928064</v>
+        <v>636973.1852747778</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434176.9241928064</v>
+        <v>636973.1852747778</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>646865.6702471602</v>
+        <v>646865.6702471601</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646865.6702471601</v>
+        <v>646865.6702471602</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646865.6702471601</v>
+        <v>646865.6702471602</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434176.9241928062</v>
+        <v>636973.1852747776</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434176.9241928064</v>
+        <v>636973.1852747777</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>378587.7342072561</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.7342072562</v>
+        <v>378587.7342072561</v>
       </c>
       <c r="E2" t="n">
-        <v>245210.4145420958</v>
+        <v>359733.289143142</v>
       </c>
       <c r="F2" t="n">
-        <v>245210.4145420959</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="G2" t="n">
+        <v>365319.7620393409</v>
+      </c>
+      <c r="H2" t="n">
         <v>365319.7620393407</v>
-      </c>
-      <c r="H2" t="n">
-        <v>365319.7620393408</v>
       </c>
       <c r="I2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="J2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="K2" t="n">
+        <v>365319.7620393408</v>
+      </c>
+      <c r="L2" t="n">
+        <v>365319.7620393408</v>
+      </c>
+      <c r="M2" t="n">
+        <v>365319.7620393408</v>
+      </c>
+      <c r="N2" t="n">
         <v>365319.7620393407</v>
       </c>
-      <c r="L2" t="n">
-        <v>365319.7620393407</v>
-      </c>
-      <c r="M2" t="n">
-        <v>365319.7620393409</v>
-      </c>
-      <c r="N2" t="n">
-        <v>365319.7620393409</v>
-      </c>
       <c r="O2" t="n">
-        <v>245210.4145420959</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="P2" t="n">
-        <v>245210.4145420957</v>
+        <v>359733.2891431419</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481291</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136841.7607842109</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="C4" t="n">
-        <v>136841.7607842109</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>136841.760784211</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>19722.71048820158</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="F4" t="n">
-        <v>19722.71048820158</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591149</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>19722.71048820159</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="P4" t="n">
-        <v>19722.71048820159</v>
+        <v>28980.6795211164</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61349.88022719398</v>
+        <v>-32016.32605064473</v>
       </c>
       <c r="C6" t="n">
-        <v>166737.4235364901</v>
+        <v>154388.4073640925</v>
       </c>
       <c r="D6" t="n">
-        <v>166737.4235364902</v>
+        <v>154388.4073640926</v>
       </c>
       <c r="E6" t="n">
-        <v>184106.7541673392</v>
+        <v>47261.84389743203</v>
       </c>
       <c r="F6" t="n">
-        <v>184106.7541673392</v>
+        <v>254694.131513993</v>
       </c>
       <c r="G6" t="n">
-        <v>94186.29198481345</v>
+        <v>250511.7907115185</v>
       </c>
       <c r="H6" t="n">
         <v>258137.4127949996</v>
@@ -26543,25 +26545,25 @@
         <v>258137.4127949995</v>
       </c>
       <c r="J6" t="n">
-        <v>80060.48430621989</v>
+        <v>112603.7428601831</v>
       </c>
       <c r="K6" t="n">
-        <v>258137.4127949995</v>
+        <v>258137.4127949996</v>
       </c>
       <c r="L6" t="n">
-        <v>258137.4127949995</v>
+        <v>258137.4127949996</v>
       </c>
       <c r="M6" t="n">
-        <v>258137.4127949997</v>
+        <v>85006.92158935993</v>
       </c>
       <c r="N6" t="n">
-        <v>258137.4127949997</v>
+        <v>258137.4127949996</v>
       </c>
       <c r="O6" t="n">
-        <v>184106.7541673392</v>
+        <v>254694.131513993</v>
       </c>
       <c r="P6" t="n">
-        <v>184106.7541673391</v>
+        <v>254694.1315139931</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658548001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658548001</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>191.7365308928245</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>40.44213997008154</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27430,7 +27432,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>38.54620374177131</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>103.4781064808664</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>304.4193999494624</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27673,16 +27675,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>260.2387402019116</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>48.49454075061735</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>117.2205539080146</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>67.41747871670154</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>350.5048792244494</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114.6701458615096</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -29995,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30150,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30402,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>506.7576310804626</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
-        <v>542.3781918554992</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O5" t="n">
-        <v>534.3646536318383</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>594.6678712320335</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P8" t="n">
-        <v>534.3646536318383</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>191.2998374487782</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>534.3646536318383</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>318.5846449871383</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>680.607728397287</v>
+        <v>17.02841056777183</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>534.3646536318382</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>437.3284175951204</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>680.607728397287</v>
+        <v>130.1896540801011</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35893,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>587.9026025434059</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0592278086264</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>646.5274952803372</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906197</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127487</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>437.9433703566021</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7417458120015</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>653.1084262398208</v>
+        <v>513.3585762149672</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>707.2639729474873</v>
       </c>
       <c r="O45" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1417133.041985755</v>
+        <v>1416415.051870896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760726</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7482822.138940625</v>
+        <v>7482822.13894062</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.9133497557902</v>
+        <v>152.1354992040098</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -667,7 +667,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -825,10 +825,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -876,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>136.6601511077866</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>164.7047943182453</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>116.4535400430314</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>232.5654896034413</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>122.9177036806383</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1141,7 +1141,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.7790181202091</v>
+        <v>50.77901812020955</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>29.89949249262364</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>25.26061305324999</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100375</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>186.9176635037746</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1773,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>181.2153107332006</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026568</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>169.635619496739</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2241,19 +2241,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.3509450707811</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3432,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>7.232857252669664</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880813</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429434</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>102.0412378013739</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>186.9176635037746</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>201.9491407442908</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>427.7981182481856</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C2" t="n">
-        <v>404.9377923018898</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D2" t="n">
-        <v>385.6855755272941</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E2" t="n">
-        <v>363.7490397155557</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505811</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505811</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N2" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091852</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W2" t="n">
-        <v>1471.030487888972</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.31048905672</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="Y2" t="n">
-        <v>653.97321901161</v>
+        <v>687.6423651808162</v>
       </c>
     </row>
     <row r="3">
@@ -4397,31 +4397,31 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924752</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336855</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N3" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
         <v>1853.185855629757</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>789.6093675008983</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>617.6368043798143</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>454.3200315065851</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
         <v>454.3200315065851</v>
@@ -4485,55 +4485,55 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754302</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="X4" t="n">
-        <v>789.6093675008983</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="Y4" t="n">
-        <v>789.6093675008983</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1438.597012500541</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.696282513841</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D5" t="n">
-        <v>588.4036616988417</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E5" t="n">
-        <v>162.4267218466993</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939483</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>455.358312627159</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596035</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W5" t="n">
-        <v>1867.421837588626</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>1455.701838756373</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>1454.404972751667</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="6">
@@ -4634,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924752</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336855</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>595.1637600336855</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825399</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4722,7 +4722,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4761,10 +4761,10 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1943.199785070404</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1668.347381242917</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
         <v>1544.188084595808</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2150.131759924241</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.231029937541</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
         <v>873.9614692703988</v>
@@ -4795,55 +4795,55 @@
         <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336855</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336855</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336855</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>667.494702989317</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958193</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
         <v>2217.231657670528</v>
@@ -4871,37 +4871,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336855</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>838.3748437825399</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>838.3748437825399</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825399</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379.7875610435608</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>207.8149979224768</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2118.947862113333</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1875.608514339233</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1595.424065839537</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1313.712598447566</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1038.860194620079</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>796.2962980658845</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>569.9535297556265</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2533.780365848255</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2106.879635861555</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1683.587015046556</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1257.610075194413</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>832.4858933838134</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>428.146830973262</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>130.2784524472968</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>4570.892110530337</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4570.892110530337</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067604</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>5003.847243949506</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4782.921672994139</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4524.566763590551</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4167.077348716801</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3770.685999017148</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3358.966000184895</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2953.628730139786</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5120,28 +5120,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.760972134626</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N12" t="n">
-        <v>1427.760972134626</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O12" t="n">
-        <v>1427.760972134626</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P12" t="n">
-        <v>1444.619098596721</v>
+        <v>1406.759588485828</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1870.905065348607</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>879.2488594437098</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>707.2762963226257</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>707.2762963226257</v>
       </c>
       <c r="E13" t="n">
         <v>681.7605255617672</v>
@@ -5193,19 +5193,19 @@
         <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387142</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292119</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292119</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292119</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1311.97872470997</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>1069.414828155775</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>1069.414828155775</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721396</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734696</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919696</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067554</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569538</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>323.7795368464024</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
         <v>134.9738161355189</v>
@@ -5278,52 +5278,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>4570.892110530337</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>5003.847243949506</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949506</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589941</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890288</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012926</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5357,28 +5357,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>690.5618714473297</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L15" t="n">
-        <v>690.5618714473297</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M15" t="n">
-        <v>690.5618714473297</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N15" t="n">
-        <v>1779.8768179202</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O15" t="n">
-        <v>1779.8768179202</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>601.6232505790713</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>429.6506874579873</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>266.333914584758</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292119</v>
+        <v>2097.444203874744</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292119</v>
+        <v>1817.259755375048</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1535.548287983077</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1260.69588415559</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1018.131987601395</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>791.789219291137</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1581.174581076927</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.830612633294</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1783.830612633294</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5752,31 +5752,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710918</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818556</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291426</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291426</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.9189991784957</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>769.9464360574117</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D22" t="n">
-        <v>606.6296631841824</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E22" t="n">
-        <v>440.4214573370359</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>201.5586180428797</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.555503974472</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1875.844036582501</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1600.991632755014</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1358.427736200819</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.084967890561</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710918</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710918</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818556</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291426</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291426</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291426</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6314,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6545,13 +6545,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3918.135197142811</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>3746.162634021727</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>3582.845861148498</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>3416.637655301351</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>3244.775881075911</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291426</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>5115.135670291426</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4834.951221791731</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>4553.239754399759</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>4553.239754399759</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>4310.675857845565</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>4108.301165854877</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6788,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7025,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>281.4704040481062</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>281.4704040481062</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>109.6086298226666</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7259,13 +7259,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>2986.829145306879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7414,49 +7414,49 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>896.2443403489217</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.53044176798</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>2876.781500254681</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>3721.926150405493</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563421</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067604</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7496,19 +7496,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M42" t="n">
-        <v>100.0769448789901</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.39189135186</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O42" t="n">
-        <v>1189.39189135186</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P42" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
         <v>1908.7645754595</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.1560104286543</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1834473075703</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>100.0769448789901</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>100.0769448789901</v>
+        <v>203.1489022541153</v>
       </c>
       <c r="F43" t="n">
         <v>100.0769448789901</v>
@@ -7569,13 +7569,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498427</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724327</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1539.792515224631</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1258.08104783266</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>983.2286440051728</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>740.6647474509779</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>514.3219791407199</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2429.413071721396</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2002.512341734696</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1579.219720919696</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>728.1185992569538</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>323.7795368464024</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
         <v>134.9738161355189</v>
@@ -7651,49 +7651,49 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1900.53044176798</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254681</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405493</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563421</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067604</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589941</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890288</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012926</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7727,22 +7727,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>1208.573242241487</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.573242241487</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
         <v>1908.7645754595</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1183.258067403227</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.285504282143</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>847.9687314089136</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>681.7605255617672</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498427</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724327</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1615.987932669487</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1615.987932669487</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1615.987932669487</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>1373.424036115293</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.424036115293</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>181.6704383876112</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8057,22 +8057,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298236</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.324593627922</v>
+        <v>463.1564485244919</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>181.4456529820158</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674471</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500401</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M6" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>268.8396510847014</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>110.3411813754879</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8534,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298236</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>268.7645418748071</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>354.7093195917363</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,16 +8768,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>38.79925177260048</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>474.9037794053517</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9017,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>151.9604952849297</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>105.9869822143642</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>723.1315272622212</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10193,16 +10193,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,16 +10907,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11062,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>476.255412789225</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11144,22 +11144,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>279.576101048122</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>550.789839114399</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11375,25 +11375,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>728.607001161029</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.648410051339862</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>139.285510735425</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080138</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>107.9720312369309</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>59.6906435631584</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.6172179931341191</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.33105441802952</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,13 +24177,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.72839555637427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.5299405605043</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>157.3615427560405</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369317</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0981677402027</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>68.10191868181127</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>107.9720312369309</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>75.43346327040797</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636973.1852747778</v>
+        <v>636973.1852747775</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>636973.1852747778</v>
+        <v>636973.1852747776</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646865.6702471602</v>
+        <v>646865.6702471601</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646865.6702471602</v>
+        <v>646865.6702471601</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646865.6702471602</v>
+        <v>646865.6702471601</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636973.1852747776</v>
+        <v>636973.1852747775</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636973.1852747777</v>
+        <v>636973.1852747776</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>378587.734207256</v>
       </c>
       <c r="C2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.734207256</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="E2" t="n">
-        <v>359733.289143142</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="F2" t="n">
-        <v>359733.2891431419</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="G2" t="n">
+        <v>365319.7620393408</v>
+      </c>
+      <c r="H2" t="n">
         <v>365319.7620393409</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>365319.7620393409</v>
+      </c>
+      <c r="J2" t="n">
+        <v>365319.7620393406</v>
+      </c>
+      <c r="K2" t="n">
         <v>365319.7620393407</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>365319.7620393407</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>365319.7620393407</v>
-      </c>
-      <c r="K2" t="n">
-        <v>365319.7620393408</v>
-      </c>
-      <c r="L2" t="n">
-        <v>365319.7620393408</v>
-      </c>
-      <c r="M2" t="n">
-        <v>365319.7620393408</v>
       </c>
       <c r="N2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="O2" t="n">
-        <v>359733.2891431419</v>
+        <v>359733.289143142</v>
       </c>
       <c r="P2" t="n">
         <v>359733.2891431419</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481291</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591149</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32016.32605064473</v>
+        <v>-32016.32605064474</v>
       </c>
       <c r="C6" t="n">
         <v>154388.4073640925</v>
       </c>
       <c r="D6" t="n">
-        <v>154388.4073640926</v>
+        <v>154388.4073640924</v>
       </c>
       <c r="E6" t="n">
-        <v>47261.84389743203</v>
+        <v>47189.32680103153</v>
       </c>
       <c r="F6" t="n">
-        <v>254694.131513993</v>
+        <v>254621.6144175926</v>
       </c>
       <c r="G6" t="n">
-        <v>250511.7907115185</v>
+        <v>250460.7600493339</v>
       </c>
       <c r="H6" t="n">
-        <v>258137.4127949996</v>
+        <v>258086.3821328154</v>
       </c>
       <c r="I6" t="n">
-        <v>258137.4127949995</v>
+        <v>258086.3821328154</v>
       </c>
       <c r="J6" t="n">
-        <v>112603.7428601831</v>
+        <v>112552.7121979986</v>
       </c>
       <c r="K6" t="n">
-        <v>258137.4127949996</v>
+        <v>258086.3821328153</v>
       </c>
       <c r="L6" t="n">
-        <v>258137.4127949996</v>
+        <v>258086.3821328153</v>
       </c>
       <c r="M6" t="n">
-        <v>85006.92158935993</v>
+        <v>84955.89092717566</v>
       </c>
       <c r="N6" t="n">
-        <v>258137.4127949996</v>
+        <v>258086.3821328153</v>
       </c>
       <c r="O6" t="n">
-        <v>254694.131513993</v>
+        <v>254621.6144175927</v>
       </c>
       <c r="P6" t="n">
-        <v>254694.1315139931</v>
+        <v>254621.6144175926</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548001</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548001</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191.7365308928245</v>
+        <v>263.514381444605</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>103.4781064808664</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>59.37454630891003</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>304.4193999494624</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>121.3490311215718</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27833,13 +27833,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>117.2205539080146</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>350.5048792244494</v>
+        <v>350.504879224449</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>144.2794790315871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>556.227813115594</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.227813115594</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>245.6677613624791</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>73.0615585410419</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L9" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>245.6677613624791</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>318.5846449871383</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>17.02841056777183</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>437.3284175951204</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>130.1896540801011</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>685.740567906197</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>437.9433703566021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>257.8052598432934</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>513.3585762149672</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>707.2639729474873</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
